--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -49,42 +49,39 @@
     <t>Scottie Barnes</t>
   </si>
   <si>
+    <t>Chris Boucher</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
     <t>Christian Koloko</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Chris Boucher</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>Thaddeus Young</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
     <t>Juancho Hernangómez</t>
   </si>
   <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
     <t>Dalano Banton</t>
   </si>
   <si>
-    <t>Khem Birch</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
     <t>Jeff Dowtin (TW)</t>
   </si>
   <si>
@@ -94,42 +91,42 @@
     <t>Ron Harper Jr. (TW)</t>
   </si>
   <si>
-    <t>Joe Wieskamp</t>
+    <t>Jakob Poeltl</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>7-1</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -139,42 +136,39 @@
     <t>August 1, 2001</t>
   </si>
   <si>
+    <t>January 11, 1993</t>
+  </si>
+  <si>
+    <t>January 18, 1999</t>
+  </si>
+  <si>
+    <t>February 25, 1994</t>
+  </si>
+  <si>
+    <t>April 2, 1994</t>
+  </si>
+  <si>
+    <t>June 21, 1988</t>
+  </si>
+  <si>
+    <t>July 17, 1997</t>
+  </si>
+  <si>
     <t>June 20, 2000</t>
   </si>
   <si>
-    <t>July 17, 1997</t>
-  </si>
-  <si>
-    <t>January 11, 1993</t>
-  </si>
-  <si>
-    <t>January 18, 1999</t>
-  </si>
-  <si>
-    <t>February 25, 1994</t>
-  </si>
-  <si>
-    <t>June 21, 1988</t>
-  </si>
-  <si>
-    <t>April 2, 1994</t>
-  </si>
-  <si>
     <t>May 10, 1998</t>
   </si>
   <si>
     <t>September 28, 1995</t>
   </si>
   <si>
+    <t>September 19, 1999</t>
+  </si>
+  <si>
     <t>November 7, 1999</t>
   </si>
   <si>
-    <t>September 28, 1992</t>
-  </si>
-  <si>
-    <t>September 19, 1999</t>
-  </si>
-  <si>
     <t>May 10, 1997</t>
   </si>
   <si>
@@ -184,48 +178,51 @@
     <t>April 12, 2000</t>
   </si>
   <si>
-    <t>August 23, 1999</t>
+    <t>October 15, 1995</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>lc</t>
+  </si>
+  <si>
     <t>cm</t>
   </si>
   <si>
     <t>gb</t>
   </si>
   <si>
-    <t>lc</t>
-  </si>
-  <si>
     <t>es</t>
   </si>
   <si>
+    <t>ng</t>
+  </si>
+  <si>
     <t>ca</t>
   </si>
   <si>
-    <t>ng</t>
+    <t>at</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -235,39 +232,36 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Wichita State</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>New Mexico State</t>
-  </si>
-  <si>
     <t>Washington State, San Diego State</t>
   </si>
   <si>
+    <t>Memphis</t>
+  </si>
+  <si>
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Pitt, UNLV</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
@@ -277,48 +271,45 @@
     <t>Rutgers University</t>
   </si>
   <si>
-    <t>Iowa</t>
+    <t>Utah</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barnesc01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bouchch01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/y/youngth01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kolokch01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bouchch01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/y/youngth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/f/flynnma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hernaju01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bantoda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/birchkh01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/dowtije01.html</t>
   </si>
   <si>
@@ -328,7 +319,7 @@
     <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
+    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
   </si>
 </sst>
 </file>
@@ -699,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -777,34 +768,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -812,34 +803,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -847,34 +838,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,34 +873,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -917,34 +908,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -952,34 +943,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -987,34 +978,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
         <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1028,28 +1019,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1063,25 +1054,25 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>214</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1089,34 +1080,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1133,25 +1124,25 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1171,22 +1162,22 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1194,34 +1185,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1229,34 +1220,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1264,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1273,57 +1264,25 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18">
-        <v>212</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1303,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>No.</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
     <t>Gary Trent Jr.</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Pascal Siakam</t>
   </si>
   <si>
@@ -88,21 +88,24 @@
     <t>Otto Porter Jr.</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Ron Harper Jr. (TW)</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
+    <t>Joe Wieskamp</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -112,12 +115,12 @@
     <t>6-9</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>January 11, 1993</t>
   </si>
   <si>
+    <t>February 25, 1994</t>
+  </si>
+  <si>
     <t>January 18, 1999</t>
   </si>
   <si>
-    <t>February 25, 1994</t>
-  </si>
-  <si>
     <t>April 2, 1994</t>
   </si>
   <si>
@@ -175,10 +178,13 @@
     <t>June 3, 1993</t>
   </si>
   <si>
+    <t>October 15, 1995</t>
+  </si>
+  <si>
     <t>April 12, 2000</t>
   </si>
   <si>
-    <t>October 15, 1995</t>
+    <t>August 23, 1999</t>
   </si>
   <si>
     <t>us</t>
@@ -211,12 +217,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -235,12 +241,12 @@
     <t>Oregon</t>
   </si>
   <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Wichita State</t>
-  </si>
-  <si>
     <t>New Mexico State</t>
   </si>
   <si>
@@ -268,10 +274,13 @@
     <t>Georgetown</t>
   </si>
   <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Rutgers University</t>
   </si>
   <si>
-    <t>Utah</t>
+    <t>Iowa</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barnesc01.html</t>
@@ -280,12 +289,12 @@
     <t>https://www.basketball-reference.com/players/b/bouchch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
   </si>
   <si>
@@ -316,10 +325,13 @@
     <t>https://www.basketball-reference.com/players/p/porteot01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
+    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
   </si>
 </sst>
 </file>
@@ -690,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,28 +751,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,28 +786,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,34 +815,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,34 +850,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -879,28 +891,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -914,28 +926,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -949,28 +961,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -984,28 +996,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1028,19 +1040,19 @@
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1054,25 +1066,25 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>214</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1086,28 +1098,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,25 +1136,25 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,25 +1171,25 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1191,28 +1203,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1220,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1229,25 +1241,25 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1255,34 +1267,69 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>212</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1303,6 +1350,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>No.</t>
   </si>
@@ -52,81 +52,81 @@
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Thaddeus Young</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Christian Koloko</t>
   </si>
   <si>
+    <t>Precious Achiuwa</t>
+  </si>
+  <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
-    <t>Juancho Hernangómez</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
     <t>Dalano Banton</t>
   </si>
   <si>
     <t>Jeff Dowtin (TW)</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Otto Porter Jr.</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Ron Harper Jr. (TW)</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
     <t>Joe Wieskamp</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-5</t>
+    <t>6-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>7-1</t>
   </si>
   <si>
@@ -142,48 +142,48 @@
     <t>January 11, 1993</t>
   </si>
   <si>
+    <t>January 18, 1999</t>
+  </si>
+  <si>
+    <t>April 2, 1994</t>
+  </si>
+  <si>
     <t>February 25, 1994</t>
   </si>
   <si>
-    <t>January 18, 1999</t>
-  </si>
-  <si>
-    <t>April 2, 1994</t>
+    <t>July 17, 1997</t>
   </si>
   <si>
     <t>June 21, 1988</t>
   </si>
   <si>
-    <t>July 17, 1997</t>
-  </si>
-  <si>
     <t>June 20, 2000</t>
   </si>
   <si>
+    <t>September 19, 1999</t>
+  </si>
+  <si>
     <t>May 10, 1998</t>
   </si>
   <si>
-    <t>September 28, 1995</t>
-  </si>
-  <si>
-    <t>September 19, 1999</t>
-  </si>
-  <si>
     <t>November 7, 1999</t>
   </si>
   <si>
     <t>May 10, 1997</t>
   </si>
   <si>
+    <t>October 15, 1995</t>
+  </si>
+  <si>
     <t>June 3, 1993</t>
   </si>
   <si>
-    <t>October 15, 1995</t>
-  </si>
-  <si>
     <t>April 12, 2000</t>
   </si>
   <si>
+    <t>January 6, 1991</t>
+  </si>
+  <si>
     <t>August 23, 1999</t>
   </si>
   <si>
@@ -199,9 +199,6 @@
     <t>gb</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
     <t>ng</t>
   </si>
   <si>
@@ -217,12 +214,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -235,48 +232,51 @@
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Florida State</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
     <t>Wichita State</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>New Mexico State</t>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Memphis</t>
+  </si>
+  <si>
     <t>Washington State, San Diego State</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
     <t>Rhode Island</t>
   </si>
   <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Georgetown</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
     <t>Rutgers University</t>
   </si>
   <si>
@@ -289,46 +289,46 @@
     <t>https://www.basketball-reference.com/players/b/bouchch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
+    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/y/youngth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/k/kolokch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/flynnma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hernaju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bantoda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/dowtije01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/porteot01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
@@ -766,7 +766,7 @@
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
         <v>73</v>
@@ -801,7 +801,7 @@
         <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -827,7 +827,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -836,7 +836,7 @@
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
         <v>75</v>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -859,19 +859,19 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -894,16 +894,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>67</v>
@@ -920,28 +920,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -955,28 +955,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -996,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1011,7 +1011,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -1025,28 +1025,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -1060,28 +1060,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>98</v>
@@ -1092,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1101,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -1113,10 +1116,10 @@
         <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>99</v>
@@ -1127,31 +1130,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>100</v>
@@ -1162,31 +1165,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>101</v>
@@ -1206,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>198</v>
@@ -1218,10 +1221,10 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>102</v>
@@ -1232,16 +1235,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>245</v>
@@ -1250,13 +1253,13 @@
         <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>103</v>
@@ -1267,19 +1270,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1288,10 +1291,10 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>104</v>
@@ -1323,7 +1326,7 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>

--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -88,12 +88,12 @@
     <t>Otto Porter Jr.</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
     <t>Ron Harper Jr. (TW)</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
     <t>Joe Wieskamp</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>June 3, 1993</t>
   </si>
   <si>
+    <t>January 6, 1991</t>
+  </si>
+  <si>
     <t>April 12, 2000</t>
   </si>
   <si>
-    <t>January 6, 1991</t>
-  </si>
-  <si>
     <t>August 23, 1999</t>
   </si>
   <si>
@@ -325,10 +325,10 @@
     <t>https://www.basketball-reference.com/players/p/porteot01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
@@ -1235,19 +1235,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
       <c r="F16">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1256,10 +1256,10 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>103</v>
@@ -1270,19 +1270,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1291,10 +1291,10 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>104</v>

--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -85,18 +85,18 @@
     <t>Jakob Poeltl</t>
   </si>
   <si>
+    <t>Will Barton</t>
+  </si>
+  <si>
     <t>Otto Porter Jr.</t>
   </si>
   <si>
-    <t>Will Barton</t>
+    <t>Joe Wieskamp</t>
   </si>
   <si>
     <t>Ron Harper Jr. (TW)</t>
   </si>
   <si>
-    <t>Joe Wieskamp</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -175,18 +175,18 @@
     <t>October 15, 1995</t>
   </si>
   <si>
+    <t>January 6, 1991</t>
+  </si>
+  <si>
     <t>June 3, 1993</t>
   </si>
   <si>
-    <t>January 6, 1991</t>
+    <t>August 23, 1999</t>
   </si>
   <si>
     <t>April 12, 2000</t>
   </si>
   <si>
-    <t>August 23, 1999</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Georgetown</t>
   </si>
   <si>
+    <t>Iowa</t>
+  </si>
+  <si>
     <t>Rutgers University</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/barnesc01.html</t>
   </si>
   <si>
@@ -322,16 +322,16 @@
     <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/porteot01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
+    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
   </si>
 </sst>
 </file>
@@ -1200,19 +1200,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1224,7 +1224,7 @@
         <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>102</v>
@@ -1235,19 +1235,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1259,7 +1259,7 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>103</v>
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1282,7 +1282,7 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1291,7 +1291,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
         <v>87</v>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1326,7 +1326,7 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>

--- a/rosters/2023/Toronto/Toronto.xlsx
+++ b/rosters/2023/Toronto/Toronto.xlsx
@@ -52,84 +52,84 @@
     <t>Chris Boucher</t>
   </si>
   <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Fred VanVleet</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
     <t>Gary Trent Jr.</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
+    <t>Christian Koloko</t>
+  </si>
+  <si>
+    <t>Precious Achiuwa</t>
   </si>
   <si>
     <t>Thaddeus Young</t>
   </si>
   <si>
-    <t>Christian Koloko</t>
-  </si>
-  <si>
-    <t>Precious Achiuwa</t>
-  </si>
-  <si>
     <t>Malachi Flynn</t>
   </si>
   <si>
     <t>Dalano Banton</t>
   </si>
   <si>
+    <t>Jakob Poeltl</t>
+  </si>
+  <si>
     <t>Jeff Dowtin (TW)</t>
   </si>
   <si>
-    <t>Jakob Poeltl</t>
-  </si>
-  <si>
     <t>Will Barton</t>
   </si>
   <si>
+    <t>Ron Harper Jr. (TW)</t>
+  </si>
+  <si>
+    <t>Joe Wieskamp</t>
+  </si>
+  <si>
     <t>Otto Porter Jr.</t>
   </si>
   <si>
-    <t>Joe Wieskamp</t>
-  </si>
-  <si>
-    <t>Ron Harper Jr. (TW)</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-7</t>
+    <t>7-1</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -142,51 +142,51 @@
     <t>January 11, 1993</t>
   </si>
   <si>
+    <t>April 2, 1994</t>
+  </si>
+  <si>
+    <t>February 25, 1994</t>
+  </si>
+  <si>
+    <t>July 17, 1997</t>
+  </si>
+  <si>
     <t>January 18, 1999</t>
   </si>
   <si>
-    <t>April 2, 1994</t>
-  </si>
-  <si>
-    <t>February 25, 1994</t>
-  </si>
-  <si>
-    <t>July 17, 1997</t>
+    <t>June 20, 2000</t>
+  </si>
+  <si>
+    <t>September 19, 1999</t>
   </si>
   <si>
     <t>June 21, 1988</t>
   </si>
   <si>
-    <t>June 20, 2000</t>
-  </si>
-  <si>
-    <t>September 19, 1999</t>
-  </si>
-  <si>
     <t>May 10, 1998</t>
   </si>
   <si>
     <t>November 7, 1999</t>
   </si>
   <si>
+    <t>October 15, 1995</t>
+  </si>
+  <si>
     <t>May 10, 1997</t>
   </si>
   <si>
-    <t>October 15, 1995</t>
-  </si>
-  <si>
     <t>January 6, 1991</t>
   </si>
   <si>
+    <t>April 12, 2000</t>
+  </si>
+  <si>
+    <t>August 23, 1999</t>
+  </si>
+  <si>
     <t>June 3, 1993</t>
   </si>
   <si>
-    <t>August 23, 1999</t>
-  </si>
-  <si>
-    <t>April 12, 2000</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -214,21 +214,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -241,97 +241,97 @@
     <t>Oregon</t>
   </si>
   <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>New Mexico State</t>
-  </si>
-  <si>
-    <t>Wichita State</t>
-  </si>
-  <si>
-    <t>Indiana</t>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Memphis</t>
   </si>
   <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Washington State, San Diego State</t>
   </si>
   <si>
     <t>Nebraska</t>
   </si>
   <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>Utah</t>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Iowa</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Rutgers University</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/barnesc01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bouchch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/trentga02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/siakapa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/v/vanvlfr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/anunoog01.html</t>
+    <t>https://www.basketball-reference.com/players/k/kolokch01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/y/youngth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kolokch01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/achiupr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/f/flynnma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bantoda01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/dowtije01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/poeltja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/porteot01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wieskjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/harpero02.html</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -824,16 +824,16 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -859,19 +859,19 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -897,16 +897,16 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>77</v>
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -932,16 +932,16 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -955,25 +955,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
         <v>68</v>
@@ -990,25 +990,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
         <v>69</v>
@@ -1025,25 +1025,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
@@ -1066,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>175</v>
@@ -1081,7 +1081,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>82</v>
@@ -1101,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1130,28 +1130,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1174,19 +1174,19 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>85</v>
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
@@ -1224,7 +1224,7 @@
         <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>102</v>
@@ -1235,19 +1235,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1256,7 +1256,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1305,19 +1305,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1326,7 +1326,7 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>
